--- a/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8413" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8414" uniqueCount="836">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:37:42+00:00</t>
+    <t>2024-05-28T08:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1650,7 +1650,19 @@
     <t>Organization.identifier:identifierOI.period</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Organization.identifier:identifierOI.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -15614,7 +15626,7 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>118</v>
@@ -15626,7 +15638,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -15733,7 +15745,7 @@
         <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>101</v>
@@ -15852,7 +15864,7 @@
         <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>101</v>
@@ -15971,7 +15983,7 @@
         <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>101</v>
@@ -16088,7 +16100,7 @@
         <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
@@ -16145,7 +16157,9 @@
       <c r="M113" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16203,10 +16217,10 @@
         <v>89</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16226,7 +16240,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>371</v>
@@ -16320,10 +16334,10 @@
         <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>101</v>
+        <v>528</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
@@ -16343,10 +16357,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16372,67 +16386,67 @@
         <v>441</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N115" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q115" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16450,24 +16464,24 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16493,16 +16507,16 @@
         <v>330</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -16530,16 +16544,16 @@
         <v>165</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AC116" s="2"/>
       <c r="AD116" t="s" s="2">
@@ -16549,7 +16563,7 @@
         <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16567,27 +16581,27 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>78</v>
@@ -16612,16 +16626,16 @@
         <v>330</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -16650,7 +16664,7 @@
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>78</v>
@@ -16668,7 +16682,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16686,24 +16700,24 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16815,10 +16829,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16930,13 +16944,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>78</v>
@@ -16958,13 +16972,13 @@
         <v>78</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17047,10 +17061,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17162,10 +17176,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17277,10 +17291,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17320,7 +17334,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>78</v>
@@ -17394,10 +17408,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17438,7 +17452,7 @@
         <v>78</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>78</v>
@@ -17457,7 +17471,7 @@
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17507,10 +17521,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17626,10 +17640,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17741,10 +17755,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17858,10 +17872,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17977,10 +17991,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18094,10 +18108,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18123,7 +18137,7 @@
         <v>175</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>426</v>
@@ -18211,10 +18225,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18328,10 +18342,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18447,10 +18461,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18566,13 +18580,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>78</v>
@@ -18597,16 +18611,16 @@
         <v>330</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -18635,7 +18649,7 @@
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -18653,7 +18667,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18671,24 +18685,24 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18800,10 +18814,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18917,10 +18931,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19036,10 +19050,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19151,10 +19165,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19268,10 +19282,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19387,10 +19401,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19504,10 +19518,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19533,7 +19547,7 @@
         <v>175</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>426</v>
@@ -19621,10 +19635,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19738,10 +19752,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19857,10 +19871,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19976,13 +19990,13 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>78</v>
@@ -20007,16 +20021,16 @@
         <v>330</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -20045,7 +20059,7 @@
       </c>
       <c r="Y146" s="2"/>
       <c r="Z146" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>78</v>
@@ -20063,7 +20077,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20081,24 +20095,24 @@
         <v>78</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20210,10 +20224,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20327,10 +20341,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20446,10 +20460,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20561,10 +20575,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20678,10 +20692,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20797,10 +20811,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20914,10 +20928,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20943,7 +20957,7 @@
         <v>175</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>426</v>
@@ -21031,10 +21045,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21148,10 +21162,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21267,10 +21281,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21386,13 +21400,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>78</v>
@@ -21417,16 +21431,16 @@
         <v>330</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>78</v>
@@ -21455,7 +21469,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>78</v>
@@ -21473,7 +21487,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21488,27 +21502,27 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21620,10 +21634,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21735,13 +21749,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21763,13 +21777,13 @@
         <v>78</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21852,10 +21866,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21967,10 +21981,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22082,10 +22096,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22125,7 +22139,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>78</v>
@@ -22199,10 +22213,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22243,7 +22257,7 @@
         <v>78</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>78</v>
@@ -22262,7 +22276,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>78</v>
@@ -22312,10 +22326,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22431,10 +22445,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22550,13 +22564,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>78</v>
@@ -22581,16 +22595,16 @@
         <v>330</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>78</v>
@@ -22619,7 +22633,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>78</v>
@@ -22637,7 +22651,7 @@
         <v>78</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22652,27 +22666,27 @@
         <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22784,10 +22798,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22899,13 +22913,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>78</v>
@@ -22927,13 +22941,13 @@
         <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23016,10 +23030,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23131,10 +23145,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23246,10 +23260,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23289,7 +23303,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>78</v>
@@ -23363,10 +23377,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23407,7 +23421,7 @@
         <v>78</v>
       </c>
       <c r="S175" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="T175" t="s" s="2">
         <v>78</v>
@@ -23426,7 +23440,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>78</v>
@@ -23476,10 +23490,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23595,10 +23609,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23714,13 +23728,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>78</v>
@@ -23745,16 +23759,16 @@
         <v>330</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>78</v>
@@ -23783,7 +23797,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>78</v>
@@ -23801,7 +23815,7 @@
         <v>78</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23819,24 +23833,24 @@
         <v>78</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23948,10 +23962,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24063,13 +24077,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>78</v>
@@ -24091,13 +24105,13 @@
         <v>78</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24180,10 +24194,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24295,10 +24309,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24410,10 +24424,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24453,7 +24467,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>78</v>
@@ -24527,10 +24541,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24571,7 +24585,7 @@
         <v>78</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>78</v>
@@ -24590,7 +24604,7 @@
       </c>
       <c r="Y185" s="2"/>
       <c r="Z185" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>78</v>
@@ -24640,10 +24654,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24759,10 +24773,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24878,13 +24892,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>78</v>
@@ -24909,16 +24923,16 @@
         <v>330</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -24946,10 +24960,10 @@
         <v>165</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>78</v>
@@ -24967,7 +24981,7 @@
         <v>78</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24985,24 +24999,24 @@
         <v>78</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25114,10 +25128,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25229,13 +25243,13 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>78</v>
@@ -25257,13 +25271,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25346,10 +25360,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25461,10 +25475,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25576,10 +25590,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25619,7 +25633,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>78</v>
@@ -25693,10 +25707,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25737,7 +25751,7 @@
         <v>78</v>
       </c>
       <c r="S195" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>78</v>
@@ -25756,7 +25770,7 @@
       </c>
       <c r="Y195" s="2"/>
       <c r="Z195" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>78</v>
@@ -25806,10 +25820,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25925,10 +25939,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26044,10 +26058,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26073,16 +26087,16 @@
         <v>103</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>78</v>
@@ -26131,7 +26145,7 @@
         <v>78</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -26146,16 +26160,16 @@
         <v>101</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>78</v>
@@ -26163,10 +26177,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26192,16 +26206,16 @@
         <v>103</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>78</v>
@@ -26250,7 +26264,7 @@
         <v>78</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -26265,13 +26279,13 @@
         <v>101</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>78</v>
@@ -26282,10 +26296,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26308,19 +26322,19 @@
         <v>78</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>78</v>
@@ -26357,7 +26371,7 @@
         <v>78</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AC200" s="2"/>
       <c r="AD200" t="s" s="2">
@@ -26367,7 +26381,7 @@
         <v>116</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -26379,19 +26393,19 @@
         <v>207</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>78</v>
@@ -26399,10 +26413,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26514,10 +26528,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26631,13 +26645,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>78</v>
@@ -26659,13 +26673,13 @@
         <v>78</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -26748,10 +26762,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26777,10 +26791,10 @@
         <v>175</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -26810,10 +26824,10 @@
         <v>323</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>78</v>
@@ -26831,7 +26845,7 @@
         <v>78</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>79</v>
@@ -26840,7 +26854,7 @@
         <v>89</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>101</v>
@@ -26849,13 +26863,13 @@
         <v>78</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>78</v>
@@ -26863,10 +26877,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26892,16 +26906,16 @@
         <v>103</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>78</v>
@@ -26950,7 +26964,7 @@
         <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -26968,10 +26982,10 @@
         <v>78</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>361</v>
@@ -26982,10 +26996,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27011,16 +27025,16 @@
         <v>175</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>78</v>
@@ -27048,10 +27062,10 @@
         <v>323</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>78</v>
@@ -27069,7 +27083,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -27087,13 +27101,13 @@
         <v>78</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>78</v>
@@ -27101,10 +27115,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27127,16 +27141,16 @@
         <v>90</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -27186,7 +27200,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27218,10 +27232,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27247,10 +27261,10 @@
         <v>230</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27301,7 +27315,7 @@
         <v>78</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -27322,7 +27336,7 @@
         <v>198</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>369</v>
@@ -27333,13 +27347,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -27361,19 +27375,19 @@
         <v>78</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>78</v>
@@ -27422,7 +27436,7 @@
         <v>78</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -27434,19 +27448,19 @@
         <v>207</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>78</v>
@@ -27454,10 +27468,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27480,19 +27494,19 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>78</v>
@@ -27541,7 +27555,7 @@
         <v>78</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -27553,19 +27567,19 @@
         <v>207</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>78</v>
@@ -27573,10 +27587,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27599,17 +27613,17 @@
         <v>90</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>78</v>
@@ -27658,7 +27672,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -27676,10 +27690,10 @@
         <v>78</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>107</v>
@@ -27690,10 +27704,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27805,10 +27819,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27922,10 +27936,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27951,13 +27965,13 @@
         <v>103</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28007,7 +28021,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28016,7 +28030,7 @@
         <v>89</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>101</v>
@@ -28039,10 +28053,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28068,13 +28082,13 @@
         <v>136</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28104,7 +28118,7 @@
       </c>
       <c r="Y215" s="2"/>
       <c r="Z215" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>78</v>
@@ -28122,7 +28136,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28154,10 +28168,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28183,13 +28197,13 @@
         <v>297</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -28239,7 +28253,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28260,7 +28274,7 @@
         <v>78</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>78</v>
@@ -28271,10 +28285,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28300,13 +28314,13 @@
         <v>103</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -28356,7 +28370,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28388,10 +28402,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28414,19 +28428,19 @@
         <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>78</v>
@@ -28475,7 +28489,7 @@
         <v>78</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>79</v>
@@ -28496,7 +28510,7 @@
         <v>78</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>78</v>
@@ -28507,10 +28521,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28622,10 +28636,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28739,14 +28753,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -28768,10 +28782,10 @@
         <v>110</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>113</v>
@@ -28826,7 +28840,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -28858,10 +28872,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28887,14 +28901,14 @@
         <v>330</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>78</v>
@@ -28922,10 +28936,10 @@
         <v>157</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>78</v>
@@ -28943,7 +28957,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -28964,7 +28978,7 @@
         <v>78</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>78</v>
@@ -28975,10 +28989,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29001,17 +29015,17 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>78</v>
@@ -29060,7 +29074,7 @@
         <v>78</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>79</v>
@@ -29078,10 +29092,10 @@
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>78</v>
@@ -29092,10 +29106,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29118,17 +29132,17 @@
         <v>78</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>78</v>
@@ -29177,7 +29191,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -29189,19 +29203,19 @@
         <v>207</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>78</v>
@@ -29209,10 +29223,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29235,19 +29249,19 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>78</v>
@@ -29296,7 +29310,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -29314,13 +29328,13 @@
         <v>78</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>78</v>
@@ -29328,10 +29342,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29354,17 +29368,17 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>78</v>
@@ -29413,7 +29427,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>

--- a/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8414" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8413" uniqueCount="833">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:38:45+00:00</t>
+    <t>2024-05-28T09:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1650,19 +1650,7 @@
     <t>Organization.identifier:identifierOI.period</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Organization.identifier:identifierOI.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -15626,7 +15614,7 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>118</v>
@@ -15638,7 +15626,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -15745,7 +15733,7 @@
         <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>101</v>
@@ -15864,7 +15852,7 @@
         <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>101</v>
@@ -15983,7 +15971,7 @@
         <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>101</v>
@@ -16100,7 +16088,7 @@
         <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
@@ -16157,9 +16145,7 @@
       <c r="M113" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N113" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16217,10 +16203,10 @@
         <v>89</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>526</v>
+        <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16240,7 +16226,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>371</v>
@@ -16334,10 +16320,10 @@
         <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>528</v>
+        <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
@@ -16357,10 +16343,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16386,23 +16372,23 @@
         <v>441</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N115" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q115" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="R115" t="s" s="2">
         <v>78</v>
       </c>
@@ -16446,7 +16432,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16464,24 +16450,24 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO115" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16507,16 +16493,16 @@
         <v>330</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O116" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -16544,16 +16530,16 @@
         <v>165</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC116" s="2"/>
       <c r="AD116" t="s" s="2">
@@ -16563,7 +16549,7 @@
         <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16581,27 +16567,27 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>78</v>
@@ -16626,16 +16612,16 @@
         <v>330</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -16664,7 +16650,7 @@
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>78</v>
@@ -16682,7 +16668,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16700,24 +16686,24 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16829,10 +16815,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16944,13 +16930,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>78</v>
@@ -16972,13 +16958,13 @@
         <v>78</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17061,10 +17047,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17176,10 +17162,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17291,10 +17277,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17334,7 +17320,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>78</v>
@@ -17408,10 +17394,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17452,7 +17438,7 @@
         <v>78</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>78</v>
@@ -17471,7 +17457,7 @@
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17521,10 +17507,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17640,10 +17626,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17755,10 +17741,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17872,10 +17858,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17991,10 +17977,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18108,10 +18094,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18137,7 +18123,7 @@
         <v>175</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>426</v>
@@ -18225,10 +18211,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18342,10 +18328,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18461,10 +18447,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18580,13 +18566,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>78</v>
@@ -18611,16 +18597,16 @@
         <v>330</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -18649,7 +18635,7 @@
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -18667,7 +18653,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18685,24 +18671,24 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18814,10 +18800,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18931,10 +18917,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19050,10 +19036,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19165,10 +19151,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19282,10 +19268,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19401,10 +19387,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19518,10 +19504,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19547,7 +19533,7 @@
         <v>175</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>426</v>
@@ -19635,10 +19621,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19752,10 +19738,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19871,10 +19857,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19990,13 +19976,13 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>78</v>
@@ -20021,16 +20007,16 @@
         <v>330</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -20059,7 +20045,7 @@
       </c>
       <c r="Y146" s="2"/>
       <c r="Z146" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>78</v>
@@ -20077,7 +20063,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20095,24 +20081,24 @@
         <v>78</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20224,10 +20210,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20341,10 +20327,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20460,10 +20446,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20575,10 +20561,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20692,10 +20678,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20811,10 +20797,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20928,10 +20914,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20957,7 +20943,7 @@
         <v>175</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>426</v>
@@ -21045,10 +21031,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21162,10 +21148,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21281,10 +21267,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21400,13 +21386,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>78</v>
@@ -21431,16 +21417,16 @@
         <v>330</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>78</v>
@@ -21469,7 +21455,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>78</v>
@@ -21487,7 +21473,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21502,27 +21488,27 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21634,10 +21620,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21749,13 +21735,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21777,13 +21763,13 @@
         <v>78</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21866,10 +21852,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21981,10 +21967,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22096,10 +22082,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22139,7 +22125,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>78</v>
@@ -22213,10 +22199,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22257,7 +22243,7 @@
         <v>78</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>78</v>
@@ -22276,7 +22262,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>78</v>
@@ -22326,10 +22312,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22445,10 +22431,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22564,13 +22550,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>78</v>
@@ -22595,16 +22581,16 @@
         <v>330</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>78</v>
@@ -22633,7 +22619,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>78</v>
@@ -22651,7 +22637,7 @@
         <v>78</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22666,27 +22652,27 @@
         <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22798,10 +22784,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22913,13 +22899,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>78</v>
@@ -22941,13 +22927,13 @@
         <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23030,10 +23016,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23145,10 +23131,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23260,10 +23246,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23303,7 +23289,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>78</v>
@@ -23377,10 +23363,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23421,7 +23407,7 @@
         <v>78</v>
       </c>
       <c r="S175" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="T175" t="s" s="2">
         <v>78</v>
@@ -23440,7 +23426,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>78</v>
@@ -23490,10 +23476,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23609,10 +23595,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23728,13 +23714,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>78</v>
@@ -23759,16 +23745,16 @@
         <v>330</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>78</v>
@@ -23797,7 +23783,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>78</v>
@@ -23815,7 +23801,7 @@
         <v>78</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23833,24 +23819,24 @@
         <v>78</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23962,10 +23948,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24077,13 +24063,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>78</v>
@@ -24105,13 +24091,13 @@
         <v>78</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24194,10 +24180,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24309,10 +24295,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24424,10 +24410,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24467,7 +24453,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>78</v>
@@ -24541,10 +24527,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24585,7 +24571,7 @@
         <v>78</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>78</v>
@@ -24604,7 +24590,7 @@
       </c>
       <c r="Y185" s="2"/>
       <c r="Z185" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>78</v>
@@ -24654,10 +24640,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24773,10 +24759,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24892,13 +24878,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>78</v>
@@ -24923,16 +24909,16 @@
         <v>330</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -24960,10 +24946,10 @@
         <v>165</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>78</v>
@@ -24981,7 +24967,7 @@
         <v>78</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24999,24 +24985,24 @@
         <v>78</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25128,10 +25114,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25243,13 +25229,13 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>78</v>
@@ -25271,13 +25257,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25360,10 +25346,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25475,10 +25461,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25590,10 +25576,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25633,7 +25619,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>78</v>
@@ -25707,10 +25693,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25751,7 +25737,7 @@
         <v>78</v>
       </c>
       <c r="S195" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>78</v>
@@ -25770,7 +25756,7 @@
       </c>
       <c r="Y195" s="2"/>
       <c r="Z195" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>78</v>
@@ -25820,10 +25806,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25939,10 +25925,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26058,10 +26044,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26087,16 +26073,16 @@
         <v>103</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O198" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>78</v>
@@ -26145,7 +26131,7 @@
         <v>78</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -26160,16 +26146,16 @@
         <v>101</v>
       </c>
       <c r="AK198" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AN198" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AM198" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>78</v>
@@ -26177,10 +26163,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26206,16 +26192,16 @@
         <v>103</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O199" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>78</v>
@@ -26264,7 +26250,7 @@
         <v>78</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -26279,13 +26265,13 @@
         <v>101</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>78</v>
@@ -26296,10 +26282,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26322,19 +26308,19 @@
         <v>78</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="O200" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>78</v>
@@ -26371,7 +26357,7 @@
         <v>78</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AC200" s="2"/>
       <c r="AD200" t="s" s="2">
@@ -26381,7 +26367,7 @@
         <v>116</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -26393,19 +26379,19 @@
         <v>207</v>
       </c>
       <c r="AJ200" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AM200" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="AK200" t="s" s="2">
+      <c r="AN200" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="AL200" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>78</v>
@@ -26413,10 +26399,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26528,10 +26514,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26645,13 +26631,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>78</v>
@@ -26673,13 +26659,13 @@
         <v>78</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -26762,10 +26748,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26791,10 +26777,10 @@
         <v>175</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -26824,37 +26810,37 @@
         <v>323</v>
       </c>
       <c r="Y204" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI204" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>101</v>
@@ -26863,13 +26849,13 @@
         <v>78</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>78</v>
@@ -26877,10 +26863,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26906,16 +26892,16 @@
         <v>103</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="O205" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>78</v>
@@ -26964,7 +26950,7 @@
         <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -26982,10 +26968,10 @@
         <v>78</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>361</v>
@@ -26996,10 +26982,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27025,16 +27011,16 @@
         <v>175</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="O206" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>78</v>
@@ -27062,10 +27048,10 @@
         <v>323</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>78</v>
@@ -27083,7 +27069,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -27101,13 +27087,13 @@
         <v>78</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>78</v>
@@ -27115,10 +27101,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27141,16 +27127,16 @@
         <v>90</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N207" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -27200,7 +27186,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27232,10 +27218,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27261,10 +27247,10 @@
         <v>230</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27315,7 +27301,7 @@
         <v>78</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -27336,7 +27322,7 @@
         <v>198</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>369</v>
@@ -27347,13 +27333,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -27375,19 +27361,19 @@
         <v>78</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>78</v>
@@ -27436,7 +27422,7 @@
         <v>78</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -27448,19 +27434,19 @@
         <v>207</v>
       </c>
       <c r="AJ209" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="AL209" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AM209" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="AK209" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="AL209" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AM209" t="s" s="2">
-        <v>700</v>
-      </c>
       <c r="AN209" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>78</v>
@@ -27468,10 +27454,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27494,19 +27480,19 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="N210" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="O210" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>78</v>
@@ -27555,7 +27541,7 @@
         <v>78</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -27567,19 +27553,19 @@
         <v>207</v>
       </c>
       <c r="AJ210" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="AM210" t="s" s="2">
         <v>760</v>
       </c>
-      <c r="AK210" t="s" s="2">
+      <c r="AN210" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="AL210" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AM210" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AN210" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>78</v>
@@ -27587,10 +27573,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27613,17 +27599,17 @@
         <v>90</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>78</v>
@@ -27672,7 +27658,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -27690,10 +27676,10 @@
         <v>78</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>107</v>
@@ -27704,10 +27690,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27819,10 +27805,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27936,10 +27922,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27965,13 +27951,13 @@
         <v>103</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28021,7 +28007,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28030,7 +28016,7 @@
         <v>89</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>101</v>
@@ -28053,10 +28039,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28082,13 +28068,13 @@
         <v>136</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28118,7 +28104,7 @@
       </c>
       <c r="Y215" s="2"/>
       <c r="Z215" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>78</v>
@@ -28136,7 +28122,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28168,10 +28154,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28197,13 +28183,13 @@
         <v>297</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -28253,7 +28239,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28274,7 +28260,7 @@
         <v>78</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>78</v>
@@ -28285,10 +28271,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28314,13 +28300,13 @@
         <v>103</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -28370,7 +28356,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28402,10 +28388,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28428,19 +28414,19 @@
         <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>796</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="O218" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>78</v>
@@ -28489,7 +28475,7 @@
         <v>78</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>79</v>
@@ -28510,7 +28496,7 @@
         <v>78</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>78</v>
@@ -28521,10 +28507,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28636,10 +28622,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28753,14 +28739,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -28782,10 +28768,10 @@
         <v>110</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>113</v>
@@ -28840,7 +28826,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -28872,10 +28858,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28901,14 +28887,14 @@
         <v>330</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>78</v>
@@ -28936,10 +28922,10 @@
         <v>157</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>78</v>
@@ -28957,7 +28943,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -28978,7 +28964,7 @@
         <v>78</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>78</v>
@@ -28989,10 +28975,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29015,17 +29001,17 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>78</v>
@@ -29074,7 +29060,7 @@
         <v>78</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>79</v>
@@ -29092,10 +29078,10 @@
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>78</v>
@@ -29106,10 +29092,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29132,17 +29118,17 @@
         <v>78</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>78</v>
@@ -29191,7 +29177,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -29203,19 +29189,19 @@
         <v>207</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>78</v>
@@ -29223,10 +29209,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29249,19 +29235,19 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>78</v>
@@ -29310,7 +29296,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -29328,13 +29314,13 @@
         <v>78</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>78</v>
@@ -29342,10 +29328,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29368,17 +29354,17 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>78</v>
@@ -29427,7 +29413,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>

--- a/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
+++ b/nr-test-log-model/ig/StructureDefinition-cds-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8413" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8414" uniqueCount="836">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:47:08+00:00</t>
+    <t>2024-05-28T09:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1650,7 +1650,19 @@
     <t>Organization.identifier:identifierOI.period</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Organization.identifier:identifierOI.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -15614,7 +15626,7 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>118</v>
@@ -15626,7 +15638,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -15733,7 +15745,7 @@
         <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>101</v>
@@ -15852,7 +15864,7 @@
         <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>101</v>
@@ -15971,7 +15983,7 @@
         <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>101</v>
@@ -16088,7 +16100,7 @@
         <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>101</v>
@@ -16145,7 +16157,9 @@
       <c r="M113" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16203,10 +16217,10 @@
         <v>89</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16226,7 +16240,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>371</v>
@@ -16320,10 +16334,10 @@
         <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>101</v>
+        <v>528</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
@@ -16343,10 +16357,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16372,67 +16386,67 @@
         <v>441</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N115" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q115" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16450,24 +16464,24 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16493,16 +16507,16 @@
         <v>330</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -16530,16 +16544,16 @@
         <v>165</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AC116" s="2"/>
       <c r="AD116" t="s" s="2">
@@ -16549,7 +16563,7 @@
         <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16567,27 +16581,27 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>78</v>
@@ -16612,16 +16626,16 @@
         <v>330</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -16650,7 +16664,7 @@
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>78</v>
@@ -16668,7 +16682,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16686,24 +16700,24 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16815,10 +16829,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16930,13 +16944,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>78</v>
@@ -16958,13 +16972,13 @@
         <v>78</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17047,10 +17061,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17162,10 +17176,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17277,10 +17291,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17320,7 +17334,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>78</v>
@@ -17394,10 +17408,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17438,7 +17452,7 @@
         <v>78</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>78</v>
@@ -17457,7 +17471,7 @@
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17507,10 +17521,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17626,10 +17640,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17741,10 +17755,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17858,10 +17872,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17977,10 +17991,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18094,10 +18108,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18123,7 +18137,7 @@
         <v>175</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>426</v>
@@ -18211,10 +18225,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18328,10 +18342,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18447,10 +18461,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18566,13 +18580,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>78</v>
@@ -18597,16 +18611,16 @@
         <v>330</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>78</v>
@@ -18635,7 +18649,7 @@
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -18653,7 +18667,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18671,24 +18685,24 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18800,10 +18814,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18917,10 +18931,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19036,10 +19050,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19151,10 +19165,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19268,10 +19282,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19387,10 +19401,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19504,10 +19518,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19533,7 +19547,7 @@
         <v>175</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>426</v>
@@ -19621,10 +19635,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19738,10 +19752,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19857,10 +19871,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19976,13 +19990,13 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>78</v>
@@ -20007,16 +20021,16 @@
         <v>330</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>78</v>
@@ -20045,7 +20059,7 @@
       </c>
       <c r="Y146" s="2"/>
       <c r="Z146" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>78</v>
@@ -20063,7 +20077,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20081,24 +20095,24 @@
         <v>78</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20210,10 +20224,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20327,10 +20341,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20446,10 +20460,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20561,10 +20575,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20678,10 +20692,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20797,10 +20811,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20914,10 +20928,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20943,7 +20957,7 @@
         <v>175</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>426</v>
@@ -21031,10 +21045,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21148,10 +21162,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21267,10 +21281,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21386,13 +21400,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>78</v>
@@ -21417,16 +21431,16 @@
         <v>330</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>78</v>
@@ -21455,7 +21469,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>78</v>
@@ -21473,7 +21487,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21488,27 +21502,27 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21620,10 +21634,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21735,13 +21749,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21763,13 +21777,13 @@
         <v>78</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21852,10 +21866,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21967,10 +21981,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22082,10 +22096,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22125,7 +22139,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>78</v>
@@ -22199,10 +22213,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22243,7 +22257,7 @@
         <v>78</v>
       </c>
       <c r="S165" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="T165" t="s" s="2">
         <v>78</v>
@@ -22262,7 +22276,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>78</v>
@@ -22312,10 +22326,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22431,10 +22445,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22550,13 +22564,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>78</v>
@@ -22581,16 +22595,16 @@
         <v>330</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>78</v>
@@ -22619,7 +22633,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>78</v>
@@ -22637,7 +22651,7 @@
         <v>78</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22652,27 +22666,27 @@
         <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22784,10 +22798,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22899,13 +22913,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>78</v>
@@ -22927,13 +22941,13 @@
         <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23016,10 +23030,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23131,10 +23145,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23246,10 +23260,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23289,7 +23303,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>78</v>
@@ -23363,10 +23377,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23407,7 +23421,7 @@
         <v>78</v>
       </c>
       <c r="S175" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="T175" t="s" s="2">
         <v>78</v>
@@ -23426,7 +23440,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>78</v>
@@ -23476,10 +23490,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23595,10 +23609,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23714,13 +23728,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>78</v>
@@ -23745,16 +23759,16 @@
         <v>330</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>78</v>
@@ -23783,7 +23797,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>78</v>
@@ -23801,7 +23815,7 @@
         <v>78</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23819,24 +23833,24 @@
         <v>78</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23948,10 +23962,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24063,13 +24077,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>78</v>
@@ -24091,13 +24105,13 @@
         <v>78</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24180,10 +24194,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24295,10 +24309,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24410,10 +24424,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24453,7 +24467,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>78</v>
@@ -24527,10 +24541,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24571,7 +24585,7 @@
         <v>78</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>78</v>
@@ -24590,7 +24604,7 @@
       </c>
       <c r="Y185" s="2"/>
       <c r="Z185" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>78</v>
@@ -24640,10 +24654,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24759,10 +24773,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24878,13 +24892,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>78</v>
@@ -24909,16 +24923,16 @@
         <v>330</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -24946,10 +24960,10 @@
         <v>165</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>78</v>
@@ -24967,7 +24981,7 @@
         <v>78</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24985,24 +24999,24 @@
         <v>78</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25114,10 +25128,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25229,13 +25243,13 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>78</v>
@@ -25257,13 +25271,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25346,10 +25360,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25461,10 +25475,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25576,10 +25590,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25619,7 +25633,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>78</v>
@@ -25693,10 +25707,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25737,7 +25751,7 @@
         <v>78</v>
       </c>
       <c r="S195" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>78</v>
@@ -25756,7 +25770,7 @@
       </c>
       <c r="Y195" s="2"/>
       <c r="Z195" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>78</v>
@@ -25806,10 +25820,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25925,10 +25939,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26044,10 +26058,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26073,16 +26087,16 @@
         <v>103</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>78</v>
@@ -26131,7 +26145,7 @@
         <v>78</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -26146,16 +26160,16 @@
         <v>101</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>78</v>
@@ -26163,10 +26177,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26192,16 +26206,16 @@
         <v>103</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>78</v>
@@ -26250,7 +26264,7 @@
         <v>78</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -26265,13 +26279,13 @@
         <v>101</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>78</v>
@@ -26282,10 +26296,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26308,19 +26322,19 @@
         <v>78</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>78</v>
@@ -26357,7 +26371,7 @@
         <v>78</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AC200" s="2"/>
       <c r="AD200" t="s" s="2">
@@ -26367,7 +26381,7 @@
         <v>116</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -26379,19 +26393,19 @@
         <v>207</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>78</v>
@@ -26399,10 +26413,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26514,10 +26528,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26631,13 +26645,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>78</v>
@@ -26659,13 +26673,13 @@
         <v>78</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -26748,10 +26762,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26777,10 +26791,10 @@
         <v>175</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -26810,10 +26824,10 @@
         <v>323</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>78</v>
@@ -26831,7 +26845,7 @@
         <v>78</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>79</v>
@@ -26840,7 +26854,7 @@
         <v>89</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>101</v>
@@ -26849,13 +26863,13 @@
         <v>78</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>78</v>
@@ -26863,10 +26877,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26892,16 +26906,16 @@
         <v>103</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>78</v>
@@ -26950,7 +26964,7 @@
         <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -26968,10 +26982,10 @@
         <v>78</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>361</v>
@@ -26982,10 +26996,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27011,16 +27025,16 @@
         <v>175</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>78</v>
@@ -27048,10 +27062,10 @@
         <v>323</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>78</v>
@@ -27069,7 +27083,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -27087,13 +27101,13 @@
         <v>78</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>78</v>
@@ -27101,10 +27115,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27127,16 +27141,16 @@
         <v>90</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -27186,7 +27200,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27218,10 +27232,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27247,10 +27261,10 @@
         <v>230</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27301,7 +27315,7 @@
         <v>78</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -27322,7 +27336,7 @@
         <v>198</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>369</v>
@@ -27333,13 +27347,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -27361,19 +27375,19 @@
         <v>78</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>78</v>
@@ -27422,7 +27436,7 @@
         <v>78</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -27434,19 +27448,19 @@
         <v>207</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>78</v>
@@ -27454,10 +27468,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27480,19 +27494,19 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>78</v>
@@ -27541,7 +27555,7 @@
         <v>78</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -27553,19 +27567,19 @@
         <v>207</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>78</v>
@@ -27573,10 +27587,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27599,17 +27613,17 @@
         <v>90</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>78</v>
@@ -27658,7 +27672,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -27676,10 +27690,10 @@
         <v>78</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>107</v>
@@ -27690,10 +27704,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27805,10 +27819,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27922,10 +27936,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27951,13 +27965,13 @@
         <v>103</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28007,7 +28021,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28016,7 +28030,7 @@
         <v>89</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>101</v>
@@ -28039,10 +28053,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28068,13 +28082,13 @@
         <v>136</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28104,7 +28118,7 @@
       </c>
       <c r="Y215" s="2"/>
       <c r="Z215" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>78</v>
@@ -28122,7 +28136,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28154,10 +28168,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28183,13 +28197,13 @@
         <v>297</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -28239,7 +28253,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28260,7 +28274,7 @@
         <v>78</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>78</v>
@@ -28271,10 +28285,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28300,13 +28314,13 @@
         <v>103</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -28356,7 +28370,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28388,10 +28402,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28414,19 +28428,19 @@
         <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>78</v>
@@ -28475,7 +28489,7 @@
         <v>78</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>79</v>
@@ -28496,7 +28510,7 @@
         <v>78</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>78</v>
@@ -28507,10 +28521,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28622,10 +28636,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28739,14 +28753,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -28768,10 +28782,10 @@
         <v>110</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>113</v>
@@ -28826,7 +28840,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -28858,10 +28872,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28887,14 +28901,14 @@
         <v>330</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>78</v>
@@ -28922,10 +28936,10 @@
         <v>157</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>78</v>
@@ -28943,7 +28957,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -28964,7 +28978,7 @@
         <v>78</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>78</v>
@@ -28975,10 +28989,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29001,17 +29015,17 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>78</v>
@@ -29060,7 +29074,7 @@
         <v>78</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>79</v>
@@ -29078,10 +29092,10 @@
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>78</v>
@@ -29092,10 +29106,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29118,17 +29132,17 @@
         <v>78</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>78</v>
@@ -29177,7 +29191,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -29189,19 +29203,19 @@
         <v>207</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>78</v>
@@ -29209,10 +29223,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29235,19 +29249,19 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>78</v>
@@ -29296,7 +29310,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -29314,13 +29328,13 @@
         <v>78</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>78</v>
@@ -29328,10 +29342,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29354,17 +29368,17 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>78</v>
@@ -29413,7 +29427,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>
